--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2836580.866728562</v>
+        <v>2834328.787017356</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8783090.983888142</v>
+        <v>8783090.98388814</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4615936850608</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.5212624470879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>173.502387602262</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.3018991922778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
-        <v>183.1642512458445</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>122.0832070590318</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240227</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633477</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>958.9589180352325</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>547.973013245625</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>776.4603107317583</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.4603107317583</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,13 +4565,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3040.060216164285</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2687.29156089417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5809963705863</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.229461200826</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480555</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540143</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933393</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335148</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>708.595860545541</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905374</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939509</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544677</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.190634905773</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3980557622425</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
@@ -5118,28 +5118,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,7 +6060,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6072,19 +6072,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
         <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>160.7422054838785</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-2.091670479915353e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.11969353038562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00954930701792</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534526</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090848</v>
+        <v>-849063.3492090846</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.396518508</v>
+        <v>479681.3965185077</v>
       </c>
       <c r="D6" t="n">
-        <v>479681.396518508</v>
+        <v>479681.3965185077</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262114</v>
+        <v>228769.1269007759</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.3266335664</v>
+        <v>554181.5887081308</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335669</v>
+        <v>554181.5887081308</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.326633567</v>
+        <v>554181.5887081312</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081313</v>
       </c>
       <c r="J6" t="n">
-        <v>336685.124236289</v>
+        <v>336650.3863108536</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335669</v>
+        <v>554181.5887081316</v>
       </c>
       <c r="L6" t="n">
-        <v>554216.3266335669</v>
+        <v>554181.5887081312</v>
       </c>
       <c r="M6" t="n">
-        <v>469161.2986980548</v>
+        <v>469126.5607726191</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081315</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.588708131</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335666</v>
+        <v>554181.5887081311</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,22 +26969,22 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1883929419492745</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>154.2498708678729</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94492190635007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
-        <v>111.4435131414759</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>103.6264483300053</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,31 +31838,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>305.6802133385886</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>704.1404939038099</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7058059242583</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>572.7987818204766</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
